--- a/results/I2_N10_T100_C400_0_P6_res.xlsx
+++ b/results/I2_N10_T100_C400_0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>262.5850064553654</v>
+        <v>154.5534176329492</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.01200008392333984</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.12500645536537</v>
+        <v>47.83341763294923</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.46</v>
+        <v>106.72</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.46173964959884</v>
+        <v>39.3596524473688</v>
       </c>
     </row>
     <row r="4">
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.00919155153804</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.47120644830736</v>
+        <v>35.17863316307213</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>37.32144153802307</v>
       </c>
     </row>
     <row r="11">
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.35343867541883</v>
+        <v>36.74896288328807</v>
       </c>
     </row>
     <row r="13">
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37.45822856041903</v>
+        <v>44.69631807301934</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.79840527524938</v>
+        <v>42.53774290968479</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4587509343245</v>
+        <v>40.16617764908928</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>322</v>
+        <v>343.05</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>333.4199999999995</v>
+        <v>362.2800000000007</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>290.3099999999995</v>
+        <v>342.8250000000007</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>317.1549999999995</v>
+        <v>361.6900000000007</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>300.5049999999995</v>
+        <v>336.1650000000006</v>
       </c>
     </row>
     <row r="12">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.90499999999942</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999942</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999942</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999941</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>140.4050000000002</v>
+        <v>119.55</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.8250000000002</v>
+        <v>116.1599999999989</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>156.3550000000002</v>
+        <v>117.2349999999989</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157</v>
+        <v>121.4449999999989</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>153.4800000000002</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="27">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1299999999993</v>
+        <v>175.1550000000005</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6699999999993</v>
+        <v>186.0100000000006</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>117.2199999999993</v>
+        <v>167.8250000000006</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.2299999999992</v>
+        <v>181.8800000000006</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>125.7699999999992</v>
+        <v>167.4450000000006</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>223.4800000000011</v>
+        <v>238.4400000000016</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>238.5450000000011</v>
+        <v>249.0050000000016</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>234.3300000000011</v>
+        <v>230.1</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>246.7700000000011</v>
+        <v>253.1450000000016</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>235.3350000000011</v>
+        <v>239.4750000000016</v>
       </c>
     </row>
     <row r="42">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>212.0549999999987</v>
+        <v>187.4749999999983</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>215.8299999999987</v>
+        <v>195.3199999999983</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>177.0399999999987</v>
+        <v>177.0549999999983</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>198</v>
+        <v>185.2149999999983</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>184.7</v>
+        <v>179.1799999999984</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000008</v>
+        <v>152.1250000000007</v>
       </c>
     </row>
     <row r="50">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>213.315</v>
+        <v>233.1049999999998</v>
       </c>
     </row>
     <row r="53">
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>222.965</v>
+        <v>244.6899999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>213.855</v>
+        <v>229.5549999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>224.03</v>
+        <v>242.5349999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>210.535</v>
+        <v>220.3599999999998</v>
       </c>
     </row>
     <row r="57">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>213.315</v>
+        <v>343.05</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>222.965</v>
+        <v>362.2800000000007</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>213.855</v>
+        <v>342.8250000000007</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>224.03</v>
+        <v>361.6900000000007</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>210.535</v>
+        <v>336.1650000000006</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>322</v>
+        <v>187.4749999999983</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>333.4199999999995</v>
+        <v>195.3199999999983</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>290.3099999999995</v>
+        <v>177.0549999999983</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>317.1549999999995</v>
+        <v>185.2149999999983</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>300.5049999999995</v>
+        <v>179.1799999999984</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>223.4800000000011</v>
+        <v>238.4400000000016</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>238.5450000000011</v>
+        <v>249.0050000000016</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>234.3300000000011</v>
+        <v>230.1</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>246.7700000000011</v>
+        <v>253.1450000000016</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>235.3350000000011</v>
+        <v>239.4750000000016</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2296,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2318,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2329,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2472,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2483,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>6.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2494,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
